--- a/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_1_9.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-00/content/results/metrics_1_9.xlsx
@@ -478,652 +478,652 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_0</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722304983814706</v>
+        <v>0.9918592411180278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9981001417523686</v>
+        <v>0.9502644847130644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9462917649118271</v>
+        <v>0.9695432369876992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9826588228110466</v>
+        <v>0.9601327186165663</v>
       </c>
       <c r="F2" t="n">
-        <v>3.349010163025365</v>
+        <v>0.9817779449189653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2563293567508678</v>
+        <v>3.748475519549361</v>
       </c>
       <c r="H2" t="n">
-        <v>4.397509123241242</v>
+        <v>2.649151507048876</v>
       </c>
       <c r="I2" t="n">
-        <v>2.205120882349564</v>
+        <v>3.231148589633617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.974659645582779</v>
+        <v>0.9918845064403244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9870917835250452</v>
+        <v>0.950396423850235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7641257615336409</v>
+        <v>0.9696767725688438</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9212776278650145</v>
+        <v>0.9602650877662967</v>
       </c>
       <c r="F3" t="n">
-        <v>3.056054287316095</v>
+        <v>0.9787309395277349</v>
       </c>
       <c r="G3" t="n">
-        <v>1.741579841522982</v>
+        <v>3.738531506244158</v>
       </c>
       <c r="H3" t="n">
-        <v>19.3128505133435</v>
+        <v>2.63753648460243</v>
       </c>
       <c r="I3" t="n">
-        <v>10.01041306547114</v>
+        <v>3.220420384031915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9749214884398784</v>
+        <v>0.9919121459727243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.987303877118517</v>
+        <v>0.9505416529557069</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7667766440271891</v>
+        <v>0.96982425594215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.922200008634704</v>
+        <v>0.9604110805977357</v>
       </c>
       <c r="F4" t="n">
-        <v>3.024475960791268</v>
+        <v>0.975397603691181</v>
       </c>
       <c r="G4" t="n">
-        <v>1.712964120085155</v>
+        <v>3.72758585214875</v>
       </c>
       <c r="H4" t="n">
-        <v>19.09580223516268</v>
+        <v>2.624708272999606</v>
       </c>
       <c r="I4" t="n">
-        <v>9.893122233680575</v>
+        <v>3.20858801134355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9752054494740768</v>
+        <v>0.9919423423573986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9875367301614024</v>
+        <v>0.9507013895480402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7696977926188473</v>
+        <v>0.9699872202100419</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9232159442833727</v>
+        <v>0.96057208102787</v>
       </c>
       <c r="F5" t="n">
-        <v>2.990230175523043</v>
+        <v>0.9717559107090704</v>
       </c>
       <c r="G5" t="n">
-        <v>1.681547528465901</v>
+        <v>3.715546795099016</v>
       </c>
       <c r="H5" t="n">
-        <v>18.85662517858893</v>
+        <v>2.61053352187105</v>
       </c>
       <c r="I5" t="n">
-        <v>9.763934872892296</v>
+        <v>3.195539308379446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9752491476293528</v>
+        <v>0.9919752642863411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9978386288897512</v>
+        <v>0.9508770733925053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9344981825760222</v>
+        <v>0.9701672909510058</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9789384031426758</v>
+        <v>0.9607494889003967</v>
       </c>
       <c r="F6" t="n">
-        <v>2.984960164986485</v>
+        <v>0.9677855162767417</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2916127385191394</v>
+        <v>3.702305822599621</v>
       </c>
       <c r="H6" t="n">
-        <v>5.363141038575193</v>
+        <v>2.594870837211901</v>
       </c>
       <c r="I6" t="n">
-        <v>2.678213049763338</v>
+        <v>3.181160821128432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.97551256917259</v>
+        <v>0.9920110508198798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9877920494467989</v>
+        <v>0.9510697853031066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7729158932749062</v>
+        <v>0.9703659353627258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9243344326803643</v>
+        <v>0.960944690600783</v>
       </c>
       <c r="F7" t="n">
-        <v>2.95319144844342</v>
+        <v>0.9634696496772268</v>
       </c>
       <c r="G7" t="n">
-        <v>1.647099785707541</v>
+        <v>3.687781475660669</v>
       </c>
       <c r="H7" t="n">
-        <v>18.59313435690591</v>
+        <v>2.57759260109528</v>
       </c>
       <c r="I7" t="n">
-        <v>9.621706805328184</v>
+        <v>3.16534018633692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9758432972904533</v>
+        <v>0.9920498738239156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9880714424750958</v>
+        <v>0.9512809267892706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.776455567590612</v>
+        <v>0.9705852179294737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9255639419522973</v>
+        <v>0.9611594248932196</v>
       </c>
       <c r="F8" t="n">
-        <v>2.913305538961228</v>
+        <v>0.9587875838317037</v>
       </c>
       <c r="G8" t="n">
-        <v>1.609404007449707</v>
+        <v>3.671868125060388</v>
       </c>
       <c r="H8" t="n">
-        <v>18.30331380944117</v>
+        <v>2.558519243170295</v>
       </c>
       <c r="I8" t="n">
-        <v>9.465361215807938</v>
+        <v>3.147936481291696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.976197926601749</v>
+        <v>0.9920917817834813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9883766685335362</v>
+        <v>0.9515119535864197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7803456174790524</v>
+        <v>0.9708264377034345</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9269141141948682</v>
+        <v>0.9613950030471756</v>
       </c>
       <c r="F9" t="n">
-        <v>2.870537138434955</v>
+        <v>0.9537334714308026</v>
       </c>
       <c r="G9" t="n">
-        <v>1.568222830211253</v>
+        <v>3.65445605466205</v>
       </c>
       <c r="H9" t="n">
-        <v>17.98480530052823</v>
+        <v>2.537537770928481</v>
       </c>
       <c r="I9" t="n">
-        <v>9.293672006106632</v>
+        <v>3.128843430712633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9765761111178624</v>
+        <v>0.9921368804112949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9887095800930569</v>
+        <v>0.9517640961265175</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7846146689644582</v>
+        <v>0.9710921740342916</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9283946273752215</v>
+        <v>0.961653301989789</v>
       </c>
       <c r="F10" t="n">
-        <v>2.824927973194578</v>
+        <v>0.9482945634892516</v>
       </c>
       <c r="G10" t="n">
-        <v>1.523306318143448</v>
+        <v>3.635452529041763</v>
       </c>
       <c r="H10" t="n">
-        <v>17.63526499588335</v>
+        <v>2.51442383064916</v>
       </c>
       <c r="I10" t="n">
-        <v>9.105408516551242</v>
+        <v>3.107908914107347</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9769767922065288</v>
+        <v>0.9921851602723137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9890715671283012</v>
+        <v>0.9520385902972514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.789292772450402</v>
+        <v>0.9713841508858527</v>
       </c>
       <c r="E11" t="n">
-        <v>0.930015504787178</v>
+        <v>0.9619359316112902</v>
       </c>
       <c r="F11" t="n">
-        <v>2.776605714606385</v>
+        <v>0.942471997875977</v>
       </c>
       <c r="G11" t="n">
-        <v>1.474466935514756</v>
+        <v>3.614764401587593</v>
       </c>
       <c r="H11" t="n">
-        <v>17.25223243625573</v>
+        <v>2.489027470700335</v>
       </c>
       <c r="I11" t="n">
-        <v>8.899296175394216</v>
+        <v>3.085002453691368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9773979519456834</v>
+        <v>0.9922365559796579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9894642559943438</v>
+        <v>0.9523368301823291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7944105960270426</v>
+        <v>0.9717046313850156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9317868118375845</v>
+        <v>0.9622445976653697</v>
       </c>
       <c r="F12" t="n">
-        <v>2.725813724672189</v>
+        <v>0.9362736602681958</v>
       </c>
       <c r="G12" t="n">
-        <v>1.421485254085946</v>
+        <v>3.592286602740686</v>
       </c>
       <c r="H12" t="n">
-        <v>16.83319658761039</v>
+        <v>2.461151842650357</v>
       </c>
       <c r="I12" t="n">
-        <v>8.674055055754847</v>
+        <v>3.059985802174193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9774156390090696</v>
+        <v>0.9922908665882192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.997432683235558</v>
+        <v>0.9526595953006751</v>
       </c>
       <c r="D13" t="n">
-        <v>0.922406106880175</v>
+        <v>0.972055905319455</v>
       </c>
       <c r="E13" t="n">
-        <v>0.975046373376544</v>
+        <v>0.9625808718006241</v>
       </c>
       <c r="F13" t="n">
-        <v>2.723680659561837</v>
+        <v>0.929723784705782</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3463830291683906</v>
+        <v>3.567960381574492</v>
       </c>
       <c r="H13" t="n">
-        <v>6.353212916828396</v>
+        <v>2.430597779093724</v>
       </c>
       <c r="I13" t="n">
-        <v>3.173127323373924</v>
+        <v>3.032731581165056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9778364016134794</v>
+        <v>0.9923478042025029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9898888970886206</v>
+        <v>0.9530077308058192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7999996261662575</v>
+        <v>0.9724403433307717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9337188584812129</v>
+        <v>0.9629464607445434</v>
       </c>
       <c r="F14" t="n">
-        <v>2.672936564196097</v>
+        <v>0.9228570914710902</v>
       </c>
       <c r="G14" t="n">
-        <v>1.364192569917712</v>
+        <v>3.541722040401391</v>
       </c>
       <c r="H14" t="n">
-        <v>16.37557940866347</v>
+        <v>2.397159079891344</v>
       </c>
       <c r="I14" t="n">
-        <v>8.428374133801503</v>
+        <v>3.003101464449319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9782872125267346</v>
+        <v>0.9924068012480828</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9903464382712461</v>
+        <v>0.9533816858640696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8060896763563929</v>
+        <v>0.9728599865715801</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9358211995757237</v>
+        <v>0.9633424246684117</v>
       </c>
       <c r="F15" t="n">
-        <v>2.618568633837323</v>
+        <v>0.9157420302089264</v>
       </c>
       <c r="G15" t="n">
-        <v>1.302460997482952</v>
+        <v>3.51353772637195</v>
       </c>
       <c r="H15" t="n">
-        <v>15.87693983824841</v>
+        <v>2.360658204096974</v>
       </c>
       <c r="I15" t="n">
-        <v>8.161038404582346</v>
+        <v>2.971009527659148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9787435182734724</v>
+        <v>0.9924671681729413</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9908374452326664</v>
+        <v>0.9537813086602231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8127106418216614</v>
+        <v>0.9733172307244848</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9381032002112518</v>
+        <v>0.9637701435017164</v>
       </c>
       <c r="F16" t="n">
-        <v>2.563538024924545</v>
+        <v>0.9084617610979073</v>
       </c>
       <c r="G16" t="n">
-        <v>1.236214213683186</v>
+        <v>3.483418881522486</v>
       </c>
       <c r="H16" t="n">
-        <v>15.33483012285031</v>
+        <v>2.32088677348672</v>
       </c>
       <c r="I16" t="n">
-        <v>7.870856994167864</v>
+        <v>2.936343930782848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9789134392145471</v>
+        <v>0.9925277806582722</v>
       </c>
       <c r="C17" t="n">
-        <v>0.996922613475744</v>
+        <v>0.9542057313018585</v>
       </c>
       <c r="D17" t="n">
-        <v>0.910274137175209</v>
+        <v>0.9738139581072293</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9710837943468178</v>
+        <v>0.964229974410311</v>
       </c>
       <c r="F17" t="n">
-        <v>2.543045508840276</v>
+        <v>0.9011518773208204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4152017705635533</v>
+        <v>3.451430917329614</v>
       </c>
       <c r="H17" t="n">
-        <v>7.346551226547352</v>
+        <v>2.277681062687502</v>
       </c>
       <c r="I17" t="n">
-        <v>3.677012709654156</v>
+        <v>2.899075726375193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_12</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9791956498903441</v>
+        <v>0.9925851208007793</v>
       </c>
       <c r="C18" t="n">
-        <v>0.991361742913709</v>
+        <v>0.9582011591958821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8198885283050263</v>
+        <v>0.9800732475449591</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9405726611884656</v>
+        <v>0.96935812017191</v>
       </c>
       <c r="F18" t="n">
-        <v>2.509010817316395</v>
+        <v>0.8942366390625439</v>
       </c>
       <c r="G18" t="n">
-        <v>1.165475837546346</v>
+        <v>3.150302768471241</v>
       </c>
       <c r="H18" t="n">
-        <v>14.7471209709043</v>
+        <v>1.733243492604293</v>
       </c>
       <c r="I18" t="n">
-        <v>7.556837945191755</v>
+        <v>2.483451676526844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9796306850549468</v>
+        <v>0.9925871439413033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9919184355968501</v>
+        <v>0.9546530723527547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8276466005807217</v>
+        <v>0.9743518742622788</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9432361163270657</v>
+        <v>0.9647218305471579</v>
       </c>
       <c r="F19" t="n">
-        <v>2.456545446942026</v>
+        <v>0.8939926477129989</v>
       </c>
       <c r="G19" t="n">
-        <v>1.090366719508009</v>
+        <v>3.41771563422659</v>
       </c>
       <c r="H19" t="n">
-        <v>14.11190751518142</v>
+        <v>2.230892722369129</v>
       </c>
       <c r="I19" t="n">
-        <v>7.218150410814346</v>
+        <v>2.859211953182577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.979890193787409</v>
+        <v>0.9926432966750481</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9963412835611922</v>
+        <v>0.9551203454900471</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8983032245478199</v>
+        <v>0.9749324020922026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9671299770128935</v>
+        <v>0.9652450613812377</v>
       </c>
       <c r="F20" t="n">
-        <v>2.425248616543389</v>
+        <v>0.8872206113049849</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4936349501141105</v>
+        <v>3.382498105947678</v>
       </c>
       <c r="H20" t="n">
-        <v>8.326702546099092</v>
+        <v>2.180397987426184</v>
       </c>
       <c r="I20" t="n">
-        <v>4.17978395021249</v>
+        <v>2.816805335201038</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_10</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9800314198321919</v>
+        <v>0.99269132480108</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9925055670803585</v>
+        <v>0.957894383361084</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8360021795008049</v>
+        <v>0.9792580680095936</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9460977084103537</v>
+        <v>0.968795412729386</v>
       </c>
       <c r="F21" t="n">
-        <v>2.408216713495263</v>
+        <v>0.8814284050060885</v>
       </c>
       <c r="G21" t="n">
-        <v>1.011150790802</v>
+        <v>3.173423906356226</v>
       </c>
       <c r="H21" t="n">
-        <v>13.42777156339105</v>
+        <v>1.804148404388801</v>
       </c>
       <c r="I21" t="n">
-        <v>6.854267590699685</v>
+        <v>2.529057779982981</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9803754067994123</v>
+        <v>0.9926935663507477</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9931198989597505</v>
+        <v>0.9556028603399629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8449649669724083</v>
+        <v>0.9755560885239185</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9491585744569883</v>
+        <v>0.9657976056514989</v>
       </c>
       <c r="F22" t="n">
-        <v>2.366731782833032</v>
+        <v>0.8811580734487909</v>
       </c>
       <c r="G22" t="n">
-        <v>0.928264977782825</v>
+        <v>3.346131837451346</v>
       </c>
       <c r="H22" t="n">
-        <v>12.6939187452647</v>
+        <v>2.126149285755591</v>
       </c>
       <c r="I22" t="n">
-        <v>6.46504490045416</v>
+        <v>2.772022932749422</v>
       </c>
     </row>
     <row r="23">
@@ -1133,121 +1133,121 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9804646696451613</v>
+        <v>0.9927344230833944</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9957151321208662</v>
+        <v>0.9560937380593768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8866464049433592</v>
+        <v>0.9762225115244789</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9632461459760184</v>
+        <v>0.9663757850295182</v>
       </c>
       <c r="F23" t="n">
-        <v>2.355966657059411</v>
+        <v>0.876230739327297</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5781154612930347</v>
+        <v>3.30913527465915</v>
       </c>
       <c r="H23" t="n">
-        <v>9.281136637527299</v>
+        <v>2.068183326091599</v>
       </c>
       <c r="I23" t="n">
-        <v>4.673655665472184</v>
+        <v>2.725162865621326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9806334630514311</v>
+        <v>0.9927483882702133</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9937563920102833</v>
+        <v>0.9575038838749522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8545340369390901</v>
+        <v>0.9784550318947349</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9524156095068548</v>
+        <v>0.9681975708002003</v>
       </c>
       <c r="F24" t="n">
-        <v>2.335610122008322</v>
+        <v>0.8745465336390753</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8423891739312187</v>
+        <v>3.202855143887731</v>
       </c>
       <c r="H24" t="n">
-        <v>11.91042488421463</v>
+        <v>1.87399707258224</v>
       </c>
       <c r="I24" t="n">
-        <v>6.050877169812425</v>
+        <v>2.577511450242894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9807320884194831</v>
+        <v>0.9927613891325676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9950652406950564</v>
+        <v>0.9565835967662056</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8754171976860865</v>
+        <v>0.9769303360675665</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9594785696284371</v>
+        <v>0.9669744900747903</v>
       </c>
       <c r="F25" t="n">
-        <v>2.323715873257452</v>
+        <v>0.8729786257683861</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6657989773360888</v>
+        <v>3.272215512996028</v>
       </c>
       <c r="H25" t="n">
-        <v>10.20055879466122</v>
+        <v>2.006616229999035</v>
       </c>
       <c r="I25" t="n">
-        <v>5.15274432187493</v>
+        <v>2.676639241849943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9807682436307109</v>
+        <v>0.992768544220511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9944080830764008</v>
+        <v>0.9570593717087106</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8646953020862397</v>
+        <v>0.9776762868574322</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9558606255124779</v>
+        <v>0.9675854699251453</v>
       </c>
       <c r="F26" t="n">
-        <v>2.31935554401886</v>
+        <v>0.87211572003214</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7544628499612878</v>
+        <v>3.236357219088632</v>
       </c>
       <c r="H26" t="n">
-        <v>11.0784434177802</v>
+        <v>1.941732885096001</v>
       </c>
       <c r="I26" t="n">
-        <v>5.612805598819707</v>
+        <v>2.627120774242835</v>
       </c>
     </row>
   </sheetData>
